--- a/bots/crawl_ch/output/clothes_2022-08-03.xlsx
+++ b/bots/crawl_ch/output/clothes_2022-08-03.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -890,7 +890,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -943,7 +943,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -1798,7 +1798,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -1922,7 +1922,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -2232,7 +2232,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -2540,7 +2540,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -2642,7 +2642,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -2693,7 +2693,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -2744,7 +2744,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -2795,7 +2795,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -2846,7 +2846,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -2999,7 +2999,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -3052,7 +3052,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -3258,7 +3258,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -3464,7 +3464,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -3515,7 +3515,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -3566,7 +3566,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -3617,7 +3617,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -3668,7 +3668,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -3772,7 +3772,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -3823,7 +3823,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -3874,7 +3874,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -3925,7 +3925,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -4027,7 +4027,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4220,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
@@ -4342,7 +4342,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:21</t>
+          <t>2022-08-03 21:00:13</t>
         </is>
       </c>
     </row>
